--- a/subjects/resources/2/andan/LR4.xlsx
+++ b/subjects/resources/2/andan/LR4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\2 курс\AD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\4 курс\Портфолио\annavolkova1.github.io\subjects\resources\2\andan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,9 +17,6 @@
     <sheet name="Задание 3" sheetId="3" r:id="rId3"/>
     <sheet name="Задание 4" sheetId="5" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -727,7 +724,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1206,7 +1202,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3185,7 +3180,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3685,7 +3679,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4196,7 +4189,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4705,7 +4697,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5096,7 +5087,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6269,7 +6259,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14575,118 +14564,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="140">
-          <cell r="C140">
-            <v>14.287142857142857</v>
-          </cell>
-          <cell r="D140">
-            <v>14.248571428571429</v>
-          </cell>
-          <cell r="E140">
-            <v>8</v>
-          </cell>
-          <cell r="G140">
-            <v>0.16</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="C141">
-            <v>14.364285714285714</v>
-          </cell>
-          <cell r="D141">
-            <v>14.325714285714286</v>
-          </cell>
-          <cell r="E141">
-            <v>9</v>
-          </cell>
-          <cell r="G141">
-            <v>0.33999999999999997</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="C142">
-            <v>14.44142857142857</v>
-          </cell>
-          <cell r="D142">
-            <v>14.402857142857142</v>
-          </cell>
-          <cell r="E142">
-            <v>8</v>
-          </cell>
-          <cell r="G142">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="C143">
-            <v>14.518571428571427</v>
-          </cell>
-          <cell r="D143">
-            <v>14.479999999999999</v>
-          </cell>
-          <cell r="E143">
-            <v>11</v>
-          </cell>
-          <cell r="G143">
-            <v>0.72</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="C144">
-            <v>14.595714285714283</v>
-          </cell>
-          <cell r="D144">
-            <v>14.557142857142855</v>
-          </cell>
-          <cell r="E144">
-            <v>11</v>
-          </cell>
-          <cell r="G144">
-            <v>0.94</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="C145">
-            <v>14.67285714285714</v>
-          </cell>
-          <cell r="D145">
-            <v>14.634285714285712</v>
-          </cell>
-          <cell r="E145">
-            <v>1</v>
-          </cell>
-          <cell r="G145">
-            <v>0.96</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="C146">
-            <v>14.749999999999996</v>
-          </cell>
-          <cell r="D146">
-            <v>14.711428571428568</v>
-          </cell>
-          <cell r="E146">
-            <v>2</v>
-          </cell>
-          <cell r="G146">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -15906,7 +15783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -16139,7 +16016,7 @@
       <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:50" ht="57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>14</v>
       </c>
@@ -16171,7 +16048,7 @@
         <v>14.21</v>
       </c>
       <c r="C12" s="49">
-        <f t="shared" ref="C12:C18" si="0">B12+$B$137</f>
+        <f t="shared" ref="C12" si="0">B12+$B$137</f>
         <v>14.21</v>
       </c>
       <c r="D12" s="21">
